--- a/firstLevel_URL_Test.xlsx
+++ b/firstLevel_URL_Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20240506clawingPDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20240506pdf-crawler\20240506clawingPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C989B00-8577-4053-9666-6A01DD07AC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F78F024-7CAB-4DF1-ADCD-47C66782B23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://everyspec.com/NIST/</t>
+    <t>http://everyspec.com/ARMY/ARMY-General/?page=4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +67,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,10 +110,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -116,9 +125,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,138 +412,138 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.06640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="48.0703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.0703125" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.649999999999999" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
     </row>
   </sheetData>

--- a/firstLevel_URL_Test.xlsx
+++ b/firstLevel_URL_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20240506pdf-crawler\20240506clawingPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F78F024-7CAB-4DF1-ADCD-47C66782B23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FC6AF6-C90D-4C38-9798-463F67A6DF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://everyspec.com/ARMY/ARMY-General/?page=4</t>
+    <t>http://everyspec.com/MIL-PRF/</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>

--- a/firstLevel_URL_Test.xlsx
+++ b/firstLevel_URL_Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20240506pdf-crawler\20240506clawingPDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20240506clawingPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FC6AF6-C90D-4C38-9798-463F67A6DF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B302F6C7-9AB3-476E-9FAD-E89F26FE6A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://everyspec.com/MIL-PRF/</t>
+    <t>http://everyspec.com/MIL-STD/</t>
   </si>
 </sst>
 </file>
@@ -412,138 +412,138 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="48.0703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.0703125" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="48.06640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="17.649999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
     </row>
   </sheetData>

--- a/firstLevel_URL_Test.xlsx
+++ b/firstLevel_URL_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\20240506clawingPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B302F6C7-9AB3-476E-9FAD-E89F26FE6A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01923D7D-8E76-4300-B15F-27FBAF6DC7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="14566" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://everyspec.com/MIL-STD/</t>
+    <t>http://everyspec.com/MIL-HDBK/</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
